--- a/MODULE (2) ASSIGNMENT/VLOOKUP - Approximate Match.xlsx
+++ b/MODULE (2) ASSIGNMENT/VLOOKUP - Approximate Match.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janvi\Desktop\Excel Exercise\Excel Practice WorkBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURVI PAWAR\Documents\GitHub\tops-data-analytics\MODULE (2) ASSIGNMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C5BE4B-F7A4-434E-9768-E787A1219A9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBE9325F-B100-44E4-81D3-41C74FBF22CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -435,36 +446,36 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G6" s="5" t="s">
         <v>3</v>
       </c>
@@ -472,7 +483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -486,11 +497,14 @@
         <v>1.3671</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44201</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6">
+        <f>VLOOKUP(A8,G6:H27,2,FALSE)</f>
+        <v>1.3624000000000001</v>
+      </c>
       <c r="G8" s="1">
         <v>44200</v>
       </c>
@@ -498,11 +512,14 @@
         <v>1.3569</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44211</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6">
+        <f>VLOOKUP(A9,G6:H27,2,FALSE)</f>
+        <v>1.3586</v>
+      </c>
       <c r="G9" s="1">
         <v>44201</v>
       </c>
@@ -510,11 +527,14 @@
         <v>1.3624000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44220</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="e">
+        <f>VLOOKUP(A10,G6:H27,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G10" s="1">
         <v>44202</v>
       </c>
@@ -522,7 +542,7 @@
         <v>1.3607</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G11" s="1">
         <v>44203</v>
       </c>
@@ -530,7 +550,7 @@
         <v>1.3563000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G12" s="1">
         <v>44204</v>
       </c>
@@ -538,7 +558,7 @@
         <v>1.3563000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G13" s="1">
         <v>44207</v>
       </c>
@@ -546,7 +566,7 @@
         <v>1.3513999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G14" s="1">
         <v>44208</v>
       </c>
@@ -554,7 +574,7 @@
         <v>1.3663000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G15" s="1">
         <v>44209</v>
       </c>
@@ -562,7 +582,7 @@
         <v>1.3636999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G16" s="1">
         <v>44210</v>
       </c>
@@ -570,7 +590,7 @@
         <v>1.3687</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G17" s="1">
         <v>44211</v>
       </c>
@@ -578,7 +598,7 @@
         <v>1.3586</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G18" s="1">
         <v>44214</v>
       </c>
@@ -586,7 +606,7 @@
         <v>1.3584000000000001</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G19" s="1">
         <v>44215</v>
       </c>
@@ -594,7 +614,7 @@
         <v>1.3628</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G20" s="1">
         <v>44216</v>
       </c>
@@ -602,7 +622,7 @@
         <v>1.3653</v>
       </c>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G21" s="1">
         <v>44217</v>
       </c>
@@ -610,7 +630,7 @@
         <v>1.3732</v>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G22" s="1">
         <v>44218</v>
       </c>
@@ -618,7 +638,7 @@
         <v>1.3684000000000001</v>
       </c>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G23" s="1">
         <v>44221</v>
       </c>
@@ -626,7 +646,7 @@
         <v>1.3673999999999999</v>
       </c>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G24" s="1">
         <v>44222</v>
       </c>
@@ -634,7 +654,7 @@
         <v>1.3733</v>
       </c>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G25" s="1">
         <v>44223</v>
       </c>
@@ -642,7 +662,7 @@
         <v>1.3686</v>
       </c>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G26" s="1">
         <v>44224</v>
       </c>
@@ -650,7 +670,7 @@
         <v>1.3717999999999999</v>
       </c>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G27" s="1">
         <v>44225</v>
       </c>
